--- a/forecast/2017Budget_dailyJobsForecast_Values.xlsx
+++ b/forecast/2017Budget_dailyJobsForecast_Values.xlsx
@@ -21796,7 +21796,7 @@
         <v>25.0</v>
       </c>
       <c r="O408" t="n">
-        <v>7.0</v>
+        <v>9.0</v>
       </c>
       <c r="P408" t="n">
         <v>663.0</v>
